--- a/Financials/CME Group.xlsx
+++ b/Financials/CME Group.xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185675BE-7442-3446-8851-54D7348DEFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6E85BB-5CB6-554F-9688-96398B7804A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$X$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$X$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$X$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -564,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -964,18 +957,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1010,12 +991,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1025,7 +1000,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1034,6 +1008,25 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2393,11 +2386,11 @@
     <v>Powered by Refinitiv</v>
     <v>240.602</v>
     <v>162.25530000000001</v>
-    <v>0.41749999999999998</v>
-    <v>2.73</v>
-    <v>1.4345000000000002E-2</v>
-    <v>0.67</v>
-    <v>3.4710000000000001E-3</v>
+    <v>0.41620000000000001</v>
+    <v>-0.09</v>
+    <v>-4.6109999999999999E-4</v>
+    <v>0.51</v>
+    <v>2.614E-3</v>
     <v>USD</v>
     <v>CME Group Inc. provides products across all asset classes, by trading futures, options, cash and over-the-counter (OTC) products. The Company offers a range of interest rates, equity indexes, foreign exchange (FX), agricultural commodities, energy and metals. It also offers cash and repo fixed income trading through BrokerTec, and cash and OTC FX trading through electronic broking services (EBS). The Company’s operations comprise of the businesses of Chicago Mercantile Exchange Inc. (CME), the Board of Trade of the City of Chicago, Inc. (CBOT), New York Mercantile Exchange, Inc. (NYMEX) and Commodity Exchange, Inc. (COMEX) and its cash markets business. In addition, it operates central counterparty clearing houses. The Company offers clearing, settlement and guarantees for all products cleared through the clearing house. It provides clearing and settlement services for a range of exchange-traded futures and options on futures contracts and OTC derivatives.</v>
     <v>3460</v>
@@ -2405,25 +2398,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>20 S Wacker Dr, CHICAGO, IL, 60606 US</v>
-    <v>193.47</v>
+    <v>196.3</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45020.938132673436</v>
+    <v>45022.978680601562</v>
     <v>0</v>
-    <v>189.61</v>
-    <v>69444151688</v>
+    <v>193.78</v>
+    <v>70185230000</v>
     <v>CME GROUP INC.</v>
     <v>CME GROUP INC.</v>
-    <v>189.61</v>
-    <v>26.110499999999998</v>
-    <v>190.31</v>
-    <v>193.04</v>
-    <v>193.71</v>
+    <v>195.3</v>
+    <v>26.401299999999999</v>
+    <v>195.19</v>
+    <v>195.1</v>
+    <v>195.61</v>
     <v>359739700</v>
     <v>CME</v>
     <v>CME GROUP INC. (XNAS:CME)</v>
-    <v>1276939</v>
-    <v>2025599</v>
+    <v>1370087</v>
+    <v>1985947</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -3011,10 +3004,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomRight" activeCell="AA101" sqref="AA101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4468,15 +4461,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>13.835149955771605</v>
+        <v>13.982792764075388</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>25.806076435525828</v>
+        <v>26.081467855815681</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>22.72387162565445</v>
+        <v>22.966371073298429</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -9526,10 +9519,10 @@
       <c r="X83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE83" s="33" t="s">
+      <c r="AE83" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="AF83" s="34"/>
+      <c r="AF83" s="59"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9604,10 +9597,10 @@
       <c r="X84" s="1">
         <v>72500000</v>
       </c>
-      <c r="AE84" s="35" t="s">
+      <c r="AE84" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="AF84" s="36"/>
+      <c r="AF84" s="61"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9925,10 +9918,10 @@
       <c r="X88" s="1">
         <v>0</v>
       </c>
-      <c r="AE88" s="37" t="s">
+      <c r="AE88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AF88" s="38">
+      <c r="AF88" s="34">
         <f>AF85/(AF86+AF87)</f>
         <v>4.7318520241973014E-2</v>
       </c>
@@ -10191,10 +10184,10 @@
       <c r="X91" s="1">
         <v>-4400000</v>
       </c>
-      <c r="AE91" s="37" t="s">
+      <c r="AE91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AF91" s="38">
+      <c r="AF91" s="34">
         <f>AF89/AF90</f>
         <v>0.22900610262728133</v>
       </c>
@@ -10272,10 +10265,10 @@
       <c r="X92" s="1">
         <v>6300000</v>
       </c>
-      <c r="AE92" s="39" t="s">
+      <c r="AE92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AF92" s="40">
+      <c r="AF92" s="36">
         <f>AF88*(1-AF91)</f>
         <v>3.6482290339268648E-2</v>
       </c>
@@ -10353,10 +10346,10 @@
       <c r="X93" s="1">
         <v>-502800000</v>
       </c>
-      <c r="AE93" s="35" t="s">
+      <c r="AE93" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="AF93" s="36"/>
+      <c r="AF93" s="61"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10434,7 +10427,7 @@
       <c r="AE94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AF94" s="41">
+      <c r="AF94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10514,9 +10507,9 @@
       <c r="AE95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AF95" s="42" cm="1">
+      <c r="AF95" s="38" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>0.41749999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10595,7 +10588,7 @@
       <c r="AE96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AF96" s="41">
+      <c r="AF96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10672,12 +10665,12 @@
       <c r="X97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE97" s="39" t="s">
+      <c r="AE97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AF97" s="40">
+      <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>5.8923375E-2</v>
+        <v>5.8867410000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10753,10 +10746,10 @@
       <c r="X98" s="1">
         <v>-2633500000</v>
       </c>
-      <c r="AE98" s="35" t="s">
+      <c r="AE98" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="AF98" s="36"/>
+      <c r="AF98" s="61"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10912,12 +10905,12 @@
       <c r="X100" s="10">
         <v>-25381700000</v>
       </c>
-      <c r="AE100" s="37" t="s">
+      <c r="AE100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AF100" s="38">
+      <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>4.7177272479691834E-2</v>
+        <v>4.6702397042905928E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10996,9 +10989,9 @@
       <c r="AE101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AF101" s="43" cm="1">
+      <c r="AF101" s="39" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>69444151688</v>
+        <v>70185230000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11074,12 +11067,12 @@
       <c r="X102" s="10">
         <v>-22815500000</v>
       </c>
-      <c r="AE102" s="37" t="s">
+      <c r="AE102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AF102" s="38">
+      <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.95282272752030817</v>
+        <v>0.95329760295709409</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11155,12 +11148,12 @@
       <c r="X103" s="1">
         <v>160789800000</v>
       </c>
-      <c r="AE103" s="39" t="s">
+      <c r="AE103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AF103" s="44">
+      <c r="AF103" s="40">
         <f>AF99+AF101</f>
-        <v>72882551688</v>
+        <v>73623630000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11236,10 +11229,10 @@
       <c r="X104" s="11">
         <v>137974300000</v>
       </c>
-      <c r="AE104" s="35" t="s">
+      <c r="AE104" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="AF104" s="36"/>
+      <c r="AF104" s="61"/>
     </row>
     <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11345,7 +11338,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>5.7864665834220848E-2</v>
+        <v>5.7821971253751568E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11421,33 +11414,33 @@
       <c r="X106" s="1">
         <v>3056000000</v>
       </c>
-      <c r="Y106" s="45">
+      <c r="Y106" s="41">
         <f>X106*(1+$AF$106)</f>
         <v>3200542215.6099501</v>
       </c>
-      <c r="Z106" s="45">
+      <c r="Z106" s="41">
         <f t="shared" ref="Z106:AC106" si="9">Y106*(1+$AF$106)</f>
         <v>3351920966.5907879</v>
       </c>
-      <c r="AA106" s="45">
+      <c r="AA106" s="41">
         <f t="shared" si="9"/>
         <v>3510459606.3357086</v>
       </c>
-      <c r="AB106" s="45">
+      <c r="AB106" s="41">
         <f t="shared" si="9"/>
         <v>3676496782.1567149</v>
       </c>
-      <c r="AC106" s="45">
+      <c r="AC106" s="41">
         <f t="shared" si="9"/>
         <v>3850387158.654026</v>
       </c>
-      <c r="AD106" s="46" t="s">
+      <c r="AD106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AE106" s="47" t="s">
+      <c r="AE106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AF106" s="48">
+      <c r="AF106" s="44">
         <f>(SUM(Y4:AC4)/5)</f>
         <v>4.7297845422103933E-2</v>
       </c>
@@ -11477,151 +11470,151 @@
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
-      <c r="Y107" s="46"/>
-      <c r="Z107" s="46"/>
-      <c r="AA107" s="46"/>
-      <c r="AB107" s="46"/>
-      <c r="AC107" s="49">
+      <c r="Y107" s="42"/>
+      <c r="Z107" s="42"/>
+      <c r="AA107" s="42"/>
+      <c r="AB107" s="42"/>
+      <c r="AC107" s="45">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>120087843203.04478</v>
-      </c>
-      <c r="AD107" s="50" t="s">
+        <v>120244052592.34003</v>
+      </c>
+      <c r="AD107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AE107" s="51" t="s">
+      <c r="AE107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AF107" s="52">
+      <c r="AF107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y108" s="49">
+      <c r="Y108" s="45">
         <f t="shared" ref="Y108:AA108" si="10">Y107+Y106</f>
         <v>3200542215.6099501</v>
       </c>
-      <c r="Z108" s="49">
+      <c r="Z108" s="45">
         <f t="shared" si="10"/>
         <v>3351920966.5907879</v>
       </c>
-      <c r="AA108" s="49">
+      <c r="AA108" s="45">
         <f t="shared" si="10"/>
         <v>3510459606.3357086</v>
       </c>
-      <c r="AB108" s="49">
+      <c r="AB108" s="45">
         <f>AB107+AB106</f>
         <v>3676496782.1567149</v>
       </c>
-      <c r="AC108" s="49">
+      <c r="AC108" s="45">
         <f>AC107+AC106</f>
-        <v>123938230361.69881</v>
-      </c>
-      <c r="AD108" s="50" t="s">
+        <v>124094439750.99405</v>
+      </c>
+      <c r="AD108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AE108" s="53" t="s">
+      <c r="AE108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AF108" s="54">
+      <c r="AF108" s="50">
         <f>AF105</f>
-        <v>5.7864665834220848E-2</v>
+        <v>5.7821971253751568E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="55" t="s">
+      <c r="Y109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="Z109" s="56"/>
+      <c r="Z109" s="63"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y110" s="57" t="s">
+      <c r="Y110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="Z110" s="43">
+      <c r="Z110" s="39">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>105474132701.90022</v>
+        <v>105612145834.73093</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y111" s="57" t="s">
+      <c r="Y111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="Z111" s="43">
+      <c r="Z111" s="39">
         <f>X40</f>
         <v>2816100000</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y112" s="57" t="s">
+      <c r="Y112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="Z112" s="43">
+      <c r="Z112" s="39">
         <f>AF99</f>
         <v>3438400000</v>
       </c>
     </row>
     <row r="113" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y113" s="57" t="s">
+      <c r="Y113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="Z113" s="43">
+      <c r="Z113" s="39">
         <f>Z110+Z111-Z112</f>
-        <v>104851832701.90022</v>
+        <v>104989845834.73093</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y114" s="57" t="s">
+      <c r="Y114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="Z114" s="58">
+      <c r="Z114" s="52">
         <f>X34*(1+(5*AD16))</f>
         <v>378985132.10240549</v>
       </c>
     </row>
     <row r="115" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y115" s="59" t="s">
+      <c r="Y115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="Z115" s="60">
+      <c r="Z115" s="64">
         <f>Z113/Z114</f>
-        <v>276.66476550211536</v>
+        <v>277.02893053430296</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y116" s="57" t="s">
+      <c r="Y116" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="Z116" s="61" cm="1">
+      <c r="Z116" s="54" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>193.71</v>
+        <v>195.61</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="62" t="s">
+      <c r="Y117" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="Z117" s="63">
+      <c r="Z117" s="56">
         <f>Z115/Z116-1</f>
-        <v>0.42824203965781504</v>
+        <v>0.41623092139616036</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="62" t="s">
+      <c r="Y118" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="Z118" s="64" t="str">
+      <c r="Z118" s="57" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y109:Z109"/>
     <mergeCell ref="AE83:AF83"/>
     <mergeCell ref="AE84:AF84"/>
     <mergeCell ref="AE93:AF93"/>
     <mergeCell ref="AE98:AF98"/>
     <mergeCell ref="AE104:AF104"/>
-    <mergeCell ref="Y109:Z109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CME" display="ROIC.AI | CME" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
